--- a/public/template/dosen_import.xlsx
+++ b/public/template/dosen_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadam/Herd/ummaluku/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1140747-C120-6142-B8B6-67AF9713DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34370FC5-CE1F-1744-98A6-CFDE43346797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{882F53F8-C700-CB45-BC24-57464A9B631F}"/>
+    <workbookView xWindow="880" yWindow="1760" windowWidth="35360" windowHeight="17440" xr2:uid="{882F53F8-C700-CB45-BC24-57464A9B631F}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>nidn</t>
   </si>
@@ -50,17 +50,224 @@
     <t>program_studi_id</t>
   </si>
   <si>
-    <t>Dr. Budi Santoso, M.Kom.</t>
-  </si>
-  <si>
-    <t>budi.santoso@email.com</t>
+    <t>Dr. Ivatul Laily Kurniawati, M.Pd</t>
+  </si>
+  <si>
+    <t>Pramita Wally, M.Pd</t>
+  </si>
+  <si>
+    <t>Andi Sitti Marwah, M.Pd</t>
+  </si>
+  <si>
+    <t>Hadida Mony, M.Pd</t>
+  </si>
+  <si>
+    <t>Halifa, M.Pd</t>
+  </si>
+  <si>
+    <t>ANITA PADANG, S.Pi, M.Si</t>
+  </si>
+  <si>
+    <t>LAOLE, S.Pi., M.Si</t>
+  </si>
+  <si>
+    <t>NURAINY KALIKY, S.Pi., M.Si</t>
+  </si>
+  <si>
+    <t>HARTONO NURLETTE, S.Pi., M.Si</t>
+  </si>
+  <si>
+    <t>ANIESA NABILA, S.Pi., M.Si</t>
+  </si>
+  <si>
+    <t>MASRI ADAM, SH., MH</t>
+  </si>
+  <si>
+    <t>0027047301</t>
+  </si>
+  <si>
+    <t>Abu Bakar Lessy, S.Si.,M.Si</t>
+  </si>
+  <si>
+    <t>Mifta H Makatita, S.Pi.,M.Si </t>
+  </si>
+  <si>
+    <t>Fadli Latuconsina, S.Pi.,M.Si</t>
+  </si>
+  <si>
+    <t>Saiful Alimudi, S.Pi.,M.Si</t>
+  </si>
+  <si>
+    <t>Hendra Musaad, SH.,MH  </t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asria Ratau, M.Pd </t>
+  </si>
+  <si>
+    <t>1217089101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halima Bugis, M.Pd </t>
+  </si>
+  <si>
+    <t>1217108901</t>
+  </si>
+  <si>
+    <t>1207118601</t>
+  </si>
+  <si>
+    <t>Ahmad Alwi, M.Pd</t>
+  </si>
+  <si>
+    <t>Arien Sayang, M.Pd</t>
+  </si>
+  <si>
+    <t>1218029501</t>
+  </si>
+  <si>
+    <t>1206018501</t>
+  </si>
+  <si>
+    <t>Ismail Borut, M.Pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamdani Kubangun, M.T </t>
+  </si>
+  <si>
+    <t>27027601</t>
+  </si>
+  <si>
+    <t>1223019401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurfadila Hasani, M.Pd </t>
+  </si>
+  <si>
+    <t>hamdanikubangun@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>ismailborut@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>hartononurlette@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>andisitimarwah@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>asriaratau@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>yensylsalamor@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>rendym@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>pramitawally@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>fadhlil@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>nurfadilah@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>masriadam@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>hendramusaid@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>alimudi@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>laole@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>aniesanabila@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>nurainyk@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>miftahmakatita@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>halimabugis@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>morgaohiwal@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>masdarrumatiga@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>ivatul@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>anitapadang@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>abubakarlessy@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>ariensayang@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>usmanumurella@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>hadida@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>halifa@ummaluku.ac.id</t>
+  </si>
+  <si>
+    <t>UsmanMurella</t>
+  </si>
+  <si>
+    <t>Rendy M</t>
+  </si>
+  <si>
+    <t>Masdar Rumatiga</t>
+  </si>
+  <si>
+    <t>Morga Ohiwal</t>
+  </si>
+  <si>
+    <t>Yensy Isalamor</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>ahmadalwi@ummaluku.ac.id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,20 +285,117 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -100,15 +404,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -438,22 +813,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B8870D-F105-E84F-90B3-7382EF284643}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="87.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -466,24 +842,411 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1221048601</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1210038801</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1208129501</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1225128201</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1202027301</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1219038701</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1211029301</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1230098702</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1228078512</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>1216129001</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>1221118201</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>1205098702</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>12280785122</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="0012345678.budi.santoso@email.com1" xr:uid="{31B9D348-CB31-1A48-8E03-B074280C9BC0}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{9158AC0F-EF3E-9D44-BFD4-63B9E48EB567}"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{2E57C509-8CC8-D049-8E38-47DAF8459A43}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{B5C64C03-1725-B349-989F-316CE915658A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F2514BCE-1E9C-7944-9164-335DCB732D9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
